--- a/Experiences/Experiments.xlsx
+++ b/Experiences/Experiments.xlsx
@@ -1850,8 +1850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView tabSelected="1" topLeftCell="O4" workbookViewId="0">
+      <selection activeCell="AA16" sqref="AA16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2856,10 +2856,12 @@
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line (μC/cm)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor3]]</f>
         <v>0</v>
       </c>
-      <c r="T14" s="20"/>
+      <c r="T14" s="20">
+        <v>0.6</v>
+      </c>
       <c r="U14" s="20">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line (μC/cm)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor4]]</f>
-        <v>0</v>
+        <v>1344</v>
       </c>
       <c r="V14" s="20"/>
       <c r="W14" s="20">
@@ -2928,15 +2930,19 @@
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot (pC)]]*Table2[[#This Row],[Dose factor2]]</f>
         <v>2.4</v>
       </c>
-      <c r="R15" s="20"/>
+      <c r="R15" s="20">
+        <v>0.6</v>
+      </c>
       <c r="S15" s="20">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line (μC/cm)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor3]]</f>
-        <v>0</v>
-      </c>
-      <c r="T15" s="20"/>
+        <v>768</v>
+      </c>
+      <c r="T15" s="20">
+        <v>0.8</v>
+      </c>
       <c r="U15" s="20">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line (μC/cm)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor4]]</f>
-        <v>0</v>
+        <v>1024</v>
       </c>
       <c r="V15" s="20"/>
       <c r="W15" s="20">
@@ -3005,15 +3011,19 @@
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot (pC)]]*Table2[[#This Row],[Dose factor2]]</f>
         <v>3.2</v>
       </c>
-      <c r="R16" s="20"/>
+      <c r="R16" s="20">
+        <v>0.8</v>
+      </c>
       <c r="S16" s="20">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line (μC/cm)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor3]]</f>
-        <v>0</v>
-      </c>
-      <c r="T16" s="20"/>
+        <v>921.6</v>
+      </c>
+      <c r="T16" s="20">
+        <v>1</v>
+      </c>
       <c r="U16" s="20">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line (μC/cm)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor4]]</f>
-        <v>0</v>
+        <v>1152</v>
       </c>
       <c r="V16" s="20"/>
       <c r="W16" s="20">

--- a/Experiences/Experiments.xlsx
+++ b/Experiences/Experiments.xlsx
@@ -1850,8 +1850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O4" workbookViewId="0">
-      <selection activeCell="AA16" sqref="AA16"/>
+    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2856,12 +2856,10 @@
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line (μC/cm)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor3]]</f>
         <v>0</v>
       </c>
-      <c r="T14" s="20">
-        <v>0.6</v>
-      </c>
+      <c r="T14" s="20"/>
       <c r="U14" s="20">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line (μC/cm)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor4]]</f>
-        <v>1344</v>
+        <v>0</v>
       </c>
       <c r="V14" s="20"/>
       <c r="W14" s="20">
@@ -2930,19 +2928,15 @@
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot (pC)]]*Table2[[#This Row],[Dose factor2]]</f>
         <v>2.4</v>
       </c>
-      <c r="R15" s="20">
-        <v>0.6</v>
-      </c>
+      <c r="R15" s="20"/>
       <c r="S15" s="20">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line (μC/cm)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor3]]</f>
-        <v>768</v>
-      </c>
-      <c r="T15" s="20">
-        <v>0.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T15" s="20"/>
       <c r="U15" s="20">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line (μC/cm)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor4]]</f>
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="V15" s="20"/>
       <c r="W15" s="20">
@@ -3011,19 +3005,15 @@
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot (pC)]]*Table2[[#This Row],[Dose factor2]]</f>
         <v>3.2</v>
       </c>
-      <c r="R16" s="20">
-        <v>0.8</v>
-      </c>
+      <c r="R16" s="20"/>
       <c r="S16" s="20">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line (μC/cm)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor3]]</f>
-        <v>921.6</v>
-      </c>
-      <c r="T16" s="20">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T16" s="20"/>
       <c r="U16" s="20">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line (μC/cm)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor4]]</f>
-        <v>1152</v>
+        <v>0</v>
       </c>
       <c r="V16" s="20"/>
       <c r="W16" s="20">
